--- a/bin/tests/data/spreadsheets/test_SGA_updatedClassPrgrm_oneSampl_MetaG.xlsx
+++ b/bin/tests/data/spreadsheets/test_SGA_updatedClassPrgrm_oneSampl_MetaG.xlsx
@@ -115,7 +115,7 @@
     <t xml:space="preserve">meconium</t>
   </si>
   <si>
-    <t xml:space="preserve">Kraken2</t>
+    <t xml:space="preserve">Kraken 2</t>
   </si>
   <si>
     <t xml:space="preserve">RDP</t>
@@ -130,7 +130,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="0.00;[RED]0.00"/>
   </numFmts>
   <fonts count="7">
@@ -222,270 +222,274 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AB754"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z8" activeCellId="0" sqref="Z8"/>
+      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="0" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="23" style="0" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="26" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="29" style="0" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="1" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="23" style="1" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="26" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="29" style="1" width="8.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="8" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>7306</v>
       </c>
-      <c r="D2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="2" t="n">
         <v>7306</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="8" t="n">
         <v>2000</v>
       </c>
-      <c r="H2" s="10" t="n">
+      <c r="H2" s="11" t="n">
         <v>-3.21</v>
       </c>
-      <c r="I2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="7" t="n">
+      <c r="I2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="M2" s="7" t="n">
+      <c r="M2" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="N2" s="2" t="n">
         <v>367</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="3" t="n">
         <f aca="false">(C2-N2)/365.25</f>
         <v>18.9979466119097</v>
       </c>
-      <c r="P2" s="7" t="n">
+      <c r="P2" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="Q2" s="7" t="n">
+      <c r="Q2" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="R2" s="7" t="n">
+      <c r="R2" s="8" t="n">
         <v>1.5</v>
       </c>
-      <c r="S2" s="7" t="n">
+      <c r="S2" s="8" t="n">
         <f aca="false">P2/R2^2</f>
         <v>17.7777777777778</v>
       </c>
-      <c r="T2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" s="7" t="n">
+      <c r="T2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="8" t="n">
         <f aca="false">Q2-P2</f>
         <v>10</v>
       </c>
-      <c r="V2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" s="7" t="n">
+      <c r="V2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="Y2" s="7" t="n">
+      <c r="Y2" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -544,8 +548,8 @@
     <row r="754" customFormat="false" ht="8.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
